--- a/data/pca/factorExposure/factorExposure_2017-05-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02297766688230332</v>
+        <v>0.009835742734718043</v>
       </c>
       <c r="C2">
-        <v>-0.006799293518853834</v>
+        <v>0.04293123552078263</v>
       </c>
       <c r="D2">
-        <v>0.03048798082213564</v>
+        <v>-0.02964367740906934</v>
       </c>
       <c r="E2">
-        <v>-0.007331024815414114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03161258925483802</v>
+      </c>
+      <c r="F2">
+        <v>0.009221596956710458</v>
+      </c>
+      <c r="G2">
+        <v>-0.09511365516313382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01735038752336204</v>
+        <v>0.04307003878818636</v>
       </c>
       <c r="C3">
-        <v>0.01887061172344986</v>
+        <v>0.1017028288839684</v>
       </c>
       <c r="D3">
-        <v>0.1061814413614472</v>
+        <v>-0.01787459259720616</v>
       </c>
       <c r="E3">
-        <v>-0.04793874302649668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09874541721860135</v>
+      </c>
+      <c r="F3">
+        <v>0.006678135013540159</v>
+      </c>
+      <c r="G3">
+        <v>-0.1936408405765335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02486866218486607</v>
+        <v>0.05513521912997455</v>
       </c>
       <c r="C4">
-        <v>0.002295233946203036</v>
+        <v>0.06798383960387888</v>
       </c>
       <c r="D4">
-        <v>0.08576119949461639</v>
+        <v>-0.02440690075082714</v>
       </c>
       <c r="E4">
-        <v>0.007513560428683948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02690385941475546</v>
+      </c>
+      <c r="F4">
+        <v>0.01025142013509269</v>
+      </c>
+      <c r="G4">
+        <v>-0.09841965382559463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01205655938403342</v>
+        <v>0.03622397426661284</v>
       </c>
       <c r="C6">
-        <v>-0.01517377488592365</v>
+        <v>0.0523161572811572</v>
       </c>
       <c r="D6">
-        <v>0.07875607558959812</v>
+        <v>-0.01688674939702115</v>
       </c>
       <c r="E6">
-        <v>0.007278310775875665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03184708361268861</v>
+      </c>
+      <c r="F6">
+        <v>0.01085627835864618</v>
+      </c>
+      <c r="G6">
+        <v>-0.07990872274593494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01164651238307201</v>
+        <v>0.02070480015109896</v>
       </c>
       <c r="C7">
-        <v>0.0006445544094050733</v>
+        <v>0.04154461773479226</v>
       </c>
       <c r="D7">
-        <v>0.04473837389492491</v>
+        <v>-0.01347409813576506</v>
       </c>
       <c r="E7">
-        <v>0.04255335695222961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.004253242575562682</v>
+      </c>
+      <c r="F7">
+        <v>-0.004977195288866172</v>
+      </c>
+      <c r="G7">
+        <v>-0.1276896529785613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>5.244408290826428e-05</v>
+        <v>0.003390097389271039</v>
       </c>
       <c r="C8">
-        <v>-0.002579014388955599</v>
+        <v>0.02506383437054346</v>
       </c>
       <c r="D8">
-        <v>0.004969030343741784</v>
+        <v>-0.003941091684606126</v>
       </c>
       <c r="E8">
-        <v>0.002501063531821168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0238381446266048</v>
+      </c>
+      <c r="F8">
+        <v>0.006237298989639395</v>
+      </c>
+      <c r="G8">
+        <v>-0.06982932326850365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01708563256708225</v>
+        <v>0.03303176591169887</v>
       </c>
       <c r="C9">
-        <v>0.005713563294381799</v>
+        <v>0.04904654390293</v>
       </c>
       <c r="D9">
-        <v>0.06153977523981621</v>
+        <v>-0.01646522945867221</v>
       </c>
       <c r="E9">
-        <v>0.0008009472420901427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01621229575938702</v>
+      </c>
+      <c r="F9">
+        <v>0.00705652009401063</v>
+      </c>
+      <c r="G9">
+        <v>-0.09628943769253619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.04526826852553625</v>
+        <v>0.09904928582869749</v>
       </c>
       <c r="C10">
-        <v>0.1812073200134817</v>
+        <v>-0.181290148176755</v>
       </c>
       <c r="D10">
-        <v>-0.08763709992427561</v>
+        <v>0.01515533240307144</v>
       </c>
       <c r="E10">
-        <v>-0.02803095849686502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01939526453069042</v>
+      </c>
+      <c r="F10">
+        <v>-0.02371809381237454</v>
+      </c>
+      <c r="G10">
+        <v>-0.06022121582974198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>3.038244825562255e-05</v>
+        <v>0.03479773549695971</v>
       </c>
       <c r="C11">
-        <v>-0.004135736609897064</v>
+        <v>0.05451921560570633</v>
       </c>
       <c r="D11">
-        <v>0.05662024535330089</v>
+        <v>-0.002245243387492638</v>
       </c>
       <c r="E11">
-        <v>-0.002344378164423674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009933802092415314</v>
+      </c>
+      <c r="F11">
+        <v>0.02107216820504041</v>
+      </c>
+      <c r="G11">
+        <v>-0.08764572032978946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005098284351849499</v>
+        <v>0.0364890587670097</v>
       </c>
       <c r="C12">
-        <v>-0.002900049210347379</v>
+        <v>0.04943248634167183</v>
       </c>
       <c r="D12">
-        <v>0.05198922210768005</v>
+        <v>-0.006264694950401812</v>
       </c>
       <c r="E12">
-        <v>0.01234061318564457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.003005077056303211</v>
+      </c>
+      <c r="F12">
+        <v>0.001743195873172002</v>
+      </c>
+      <c r="G12">
+        <v>-0.08263570415094933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02427419669379384</v>
+        <v>0.01613276578878617</v>
       </c>
       <c r="C13">
-        <v>0.006363951692837266</v>
+        <v>0.04106194569324027</v>
       </c>
       <c r="D13">
-        <v>0.03632226041068712</v>
+        <v>-0.02619465680785505</v>
       </c>
       <c r="E13">
-        <v>-0.01896703391403095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02983755304890534</v>
+      </c>
+      <c r="F13">
+        <v>0.005821976763842687</v>
+      </c>
+      <c r="G13">
+        <v>-0.1245547746826785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009371868354593348</v>
+        <v>0.008655593573235016</v>
       </c>
       <c r="C14">
-        <v>0.00761257283857149</v>
+        <v>0.02926491941277521</v>
       </c>
       <c r="D14">
-        <v>0.01942431312954836</v>
+        <v>-0.009893051957192164</v>
       </c>
       <c r="E14">
-        <v>-0.0002122405740976768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002564779598678142</v>
+      </c>
+      <c r="F14">
+        <v>-0.009008726734662114</v>
+      </c>
+      <c r="G14">
+        <v>-0.1010321824305852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001793730538232463</v>
+        <v>0.03328506325010788</v>
       </c>
       <c r="C16">
-        <v>0.003564068648885854</v>
+        <v>0.04778756883358903</v>
       </c>
       <c r="D16">
-        <v>0.04745604559338551</v>
+        <v>-0.001797223034190232</v>
       </c>
       <c r="E16">
-        <v>0.009129210986283422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.00901286646402007</v>
+      </c>
+      <c r="F16">
+        <v>0.003057139175166151</v>
+      </c>
+      <c r="G16">
+        <v>-0.09058939318713335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01349104282849831</v>
+        <v>0.02149107393347917</v>
       </c>
       <c r="C19">
-        <v>-0.0003359772784392479</v>
+        <v>0.05475689513225567</v>
       </c>
       <c r="D19">
-        <v>0.0504712082482822</v>
+        <v>-0.0188875237880286</v>
       </c>
       <c r="E19">
-        <v>0.0003647116406303622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06916166600324641</v>
+      </c>
+      <c r="F19">
+        <v>0.01980343091061688</v>
+      </c>
+      <c r="G19">
+        <v>-0.1358878237879291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01065864305946023</v>
+        <v>0.01526625396856168</v>
       </c>
       <c r="C20">
-        <v>-0.001567120366320942</v>
+        <v>0.0404023166292127</v>
       </c>
       <c r="D20">
-        <v>0.03654305072680773</v>
+        <v>-0.01406607498831024</v>
       </c>
       <c r="E20">
-        <v>-0.02656815958148477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0295933314404157</v>
+      </c>
+      <c r="F20">
+        <v>-0.01353696854643257</v>
+      </c>
+      <c r="G20">
+        <v>-0.1084759657326504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01472545526690547</v>
+        <v>0.01255701211058526</v>
       </c>
       <c r="C21">
-        <v>0.003590409644121649</v>
+        <v>0.04020271876439057</v>
       </c>
       <c r="D21">
-        <v>0.03887612106867534</v>
+        <v>-0.0187568667913109</v>
       </c>
       <c r="E21">
-        <v>-0.006227169331403626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04190380943338343</v>
+      </c>
+      <c r="F21">
+        <v>0.002273219976588793</v>
+      </c>
+      <c r="G21">
+        <v>-0.1323662882989541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009111275307072651</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002095725414720441</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0003762128337472254</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.001411381983326244</v>
+      </c>
+      <c r="F22">
+        <v>0.0008659397520749095</v>
+      </c>
+      <c r="G22">
+        <v>-0.003446418366267035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0009154836539318469</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002091586258659995</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0003763325641230186</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.001417040807205037</v>
+      </c>
+      <c r="F23">
+        <v>0.0008644282706734874</v>
+      </c>
+      <c r="G23">
+        <v>-0.003459049072305716</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.002923973323391358</v>
+        <v>0.02885781206376868</v>
       </c>
       <c r="C24">
-        <v>-0.009686612981895595</v>
+        <v>0.05208897582772784</v>
       </c>
       <c r="D24">
-        <v>0.05071510397087554</v>
+        <v>-0.0070165932321041</v>
       </c>
       <c r="E24">
-        <v>0.006834289498883439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.00560650152997548</v>
+      </c>
+      <c r="F24">
+        <v>0.01239876858375983</v>
+      </c>
+      <c r="G24">
+        <v>-0.08830513623912549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01263080629599561</v>
+        <v>0.04317831727955358</v>
       </c>
       <c r="C25">
-        <v>0.004905121473002838</v>
+        <v>0.05912983737204372</v>
       </c>
       <c r="D25">
-        <v>0.06100249918131635</v>
+        <v>-0.0110366533361951</v>
       </c>
       <c r="E25">
-        <v>0.01032802992844777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001757461029105252</v>
+      </c>
+      <c r="F25">
+        <v>0.005712421011277161</v>
+      </c>
+      <c r="G25">
+        <v>-0.09834001167166254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02305253311580795</v>
+        <v>0.0141726739262737</v>
       </c>
       <c r="C26">
-        <v>0.000700559372848897</v>
+        <v>0.01166014244783411</v>
       </c>
       <c r="D26">
-        <v>0.003744528736719679</v>
+        <v>-0.02400010979236321</v>
       </c>
       <c r="E26">
-        <v>0.005641355598059207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007065274398710355</v>
+      </c>
+      <c r="F26">
+        <v>-0.008651780961228038</v>
+      </c>
+      <c r="G26">
+        <v>-0.08136665488662305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.07501805300728688</v>
+        <v>0.1257292938300823</v>
       </c>
       <c r="C28">
-        <v>0.2422009174048802</v>
+        <v>-0.237381489084288</v>
       </c>
       <c r="D28">
-        <v>-0.1056861265153848</v>
+        <v>0.006038012168698386</v>
       </c>
       <c r="E28">
-        <v>0.003296557783072742</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.004882261779782674</v>
+      </c>
+      <c r="F28">
+        <v>-0.01672356188142794</v>
+      </c>
+      <c r="G28">
+        <v>-0.05431309210320446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0104964979197291</v>
+        <v>0.009443108586138496</v>
       </c>
       <c r="C29">
-        <v>0.01260355522219976</v>
+        <v>0.02291019239720359</v>
       </c>
       <c r="D29">
-        <v>0.02024110489530039</v>
+        <v>-0.008917563145311837</v>
       </c>
       <c r="E29">
-        <v>-0.002367520354152318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.0007679881753118333</v>
+      </c>
+      <c r="F29">
+        <v>-0.01769474610814684</v>
+      </c>
+      <c r="G29">
+        <v>-0.09379010411524953</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02162635258488807</v>
+        <v>0.04110774755513792</v>
       </c>
       <c r="C30">
-        <v>-0.0172022043581701</v>
+        <v>0.06902154780730169</v>
       </c>
       <c r="D30">
-        <v>0.09601428496237011</v>
+        <v>-0.02873859497070165</v>
       </c>
       <c r="E30">
-        <v>-0.03506012202107962</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.052684827394035</v>
+      </c>
+      <c r="F30">
+        <v>0.04562537093748992</v>
+      </c>
+      <c r="G30">
+        <v>-0.1116887464995812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01225936858645947</v>
+        <v>0.05343242645245455</v>
       </c>
       <c r="C31">
-        <v>0.02534473360908772</v>
+        <v>0.03804068982987396</v>
       </c>
       <c r="D31">
-        <v>0.04048451986631721</v>
+        <v>-0.003639146428071311</v>
       </c>
       <c r="E31">
-        <v>0.001479025379866424</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.002083721608018557</v>
+      </c>
+      <c r="F31">
+        <v>-0.04198010706781168</v>
+      </c>
+      <c r="G31">
+        <v>-0.09597491624963284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003591564182880039</v>
+        <v>0.001765639453184515</v>
       </c>
       <c r="C32">
-        <v>0.01767788105094454</v>
+        <v>0.02525662542616281</v>
       </c>
       <c r="D32">
-        <v>0.009501921764439767</v>
+        <v>0.00356469112528847</v>
       </c>
       <c r="E32">
-        <v>0.03892860843017776</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01894486953626863</v>
+      </c>
+      <c r="F32">
+        <v>0.03775108934740707</v>
+      </c>
+      <c r="G32">
+        <v>-0.09106667923791778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01300219227494095</v>
+        <v>0.02786957381371238</v>
       </c>
       <c r="C33">
-        <v>0.003906045784268536</v>
+        <v>0.05019544715426551</v>
       </c>
       <c r="D33">
-        <v>0.04218142590050635</v>
+        <v>-0.01558499961311067</v>
       </c>
       <c r="E33">
-        <v>-0.02157137163198762</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03585364920413623</v>
+      </c>
+      <c r="F33">
+        <v>0.01628541404667322</v>
+      </c>
+      <c r="G33">
+        <v>-0.1506137772823609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.002375950728484631</v>
+        <v>0.0406651821442624</v>
       </c>
       <c r="C34">
-        <v>0.01140791485758836</v>
+        <v>0.06125490653230483</v>
       </c>
       <c r="D34">
-        <v>0.05975907323208649</v>
+        <v>0.004859608331767355</v>
       </c>
       <c r="E34">
-        <v>0.02092764678501755</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0004326700625698867</v>
+      </c>
+      <c r="F34">
+        <v>0.01987936357473656</v>
+      </c>
+      <c r="G34">
+        <v>-0.09472741760008982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01412303805386136</v>
+        <v>0.01636456972103408</v>
       </c>
       <c r="C36">
-        <v>0.01152366807175358</v>
+        <v>0.009724339897174849</v>
       </c>
       <c r="D36">
-        <v>0.007864260577884296</v>
+        <v>-0.01227246214661458</v>
       </c>
       <c r="E36">
-        <v>0.003804535390828595</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0041904827507493</v>
+      </c>
+      <c r="F36">
+        <v>-0.007430962261709278</v>
+      </c>
+      <c r="G36">
+        <v>-0.08834950134767165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0002392539167316671</v>
+        <v>0.03174349224871404</v>
       </c>
       <c r="C38">
-        <v>0.02441926233363588</v>
+        <v>0.0314409941643775</v>
       </c>
       <c r="D38">
-        <v>0.05051051607572341</v>
+        <v>0.007598940443807066</v>
       </c>
       <c r="E38">
-        <v>0.006968425445572283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002562581930970221</v>
+      </c>
+      <c r="F38">
+        <v>-0.02049897763205357</v>
+      </c>
+      <c r="G38">
+        <v>-0.08246884116917845</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0001456358370288573</v>
+        <v>0.03636591359257432</v>
       </c>
       <c r="C39">
-        <v>-0.03421311564852453</v>
+        <v>0.08165693705436221</v>
       </c>
       <c r="D39">
-        <v>0.09985367786698784</v>
+        <v>-0.01151379676172377</v>
       </c>
       <c r="E39">
-        <v>-0.01376407174158459</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02118905165186671</v>
+      </c>
+      <c r="F39">
+        <v>0.02391103221504408</v>
+      </c>
+      <c r="G39">
+        <v>-0.08617826162152604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01274005441096786</v>
+        <v>0.01450950543766902</v>
       </c>
       <c r="C40">
-        <v>0.005602626965592905</v>
+        <v>0.0423193639033942</v>
       </c>
       <c r="D40">
-        <v>0.04148419553466064</v>
+        <v>-0.01468551407434536</v>
       </c>
       <c r="E40">
-        <v>0.01280614618308209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01931284530106307</v>
+      </c>
+      <c r="F40">
+        <v>-0.01688062023542181</v>
+      </c>
+      <c r="G40">
+        <v>-0.1226295207581683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.008775247359506357</v>
+        <v>0.02083495489470739</v>
       </c>
       <c r="C41">
-        <v>0.02007667647484725</v>
+        <v>0.002492636332397185</v>
       </c>
       <c r="D41">
-        <v>-0.009177364358354945</v>
+        <v>-0.004174303128379651</v>
       </c>
       <c r="E41">
-        <v>0.00951467541704989</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002901830982255321</v>
+      </c>
+      <c r="F41">
+        <v>-0.01593865537399467</v>
+      </c>
+      <c r="G41">
+        <v>-0.07762029044705508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08584642269923283</v>
+        <v>0.008887677774212597</v>
       </c>
       <c r="C42">
-        <v>-0.04659478734411233</v>
+        <v>0.02994682183209637</v>
       </c>
       <c r="D42">
-        <v>0.1395304171446607</v>
+        <v>-0.09030700851677609</v>
       </c>
       <c r="E42">
-        <v>-0.3125092621952629</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.01733794190729488</v>
+      </c>
+      <c r="F42">
+        <v>-0.03699048488175904</v>
+      </c>
+      <c r="G42">
+        <v>0.1054314301002628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.009941519328587096</v>
+        <v>0.03456657246230083</v>
       </c>
       <c r="C43">
-        <v>0.02148564731690065</v>
+        <v>0.01846457484396289</v>
       </c>
       <c r="D43">
-        <v>-0.003957194890572362</v>
+        <v>-0.005923482507396372</v>
       </c>
       <c r="E43">
-        <v>0.01281163886220159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01692780686338214</v>
+      </c>
+      <c r="F43">
+        <v>-0.005563186617877061</v>
+      </c>
+      <c r="G43">
+        <v>-0.1140904405950274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.00207545946730939</v>
+        <v>0.01285398574453086</v>
       </c>
       <c r="C44">
-        <v>-0.005001156069268544</v>
+        <v>0.05982046102131461</v>
       </c>
       <c r="D44">
-        <v>0.05637271623823684</v>
+        <v>-0.006729828855180536</v>
       </c>
       <c r="E44">
-        <v>0.008646108610330378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01823905190612192</v>
+      </c>
+      <c r="F44">
+        <v>-0.009026257590005126</v>
+      </c>
+      <c r="G44">
+        <v>-0.1030620121134276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01157011964082555</v>
+        <v>0.007654905106072267</v>
       </c>
       <c r="C46">
-        <v>0.005464888052652691</v>
+        <v>0.01772181040035502</v>
       </c>
       <c r="D46">
-        <v>0.006720266207929258</v>
+        <v>-0.01261718347993933</v>
       </c>
       <c r="E46">
-        <v>-0.008179066771681629</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0009776346234032396</v>
+      </c>
+      <c r="F46">
+        <v>-0.0168915555507297</v>
+      </c>
+      <c r="G46">
+        <v>-0.09796086098388847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.007620553591457887</v>
+        <v>0.0775130354180894</v>
       </c>
       <c r="C47">
-        <v>0.03223428610206112</v>
+        <v>0.06758370347664479</v>
       </c>
       <c r="D47">
-        <v>0.07876959024719998</v>
+        <v>0.005075023948544187</v>
       </c>
       <c r="E47">
-        <v>0.01251543312514584</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.006821759619620191</v>
+      </c>
+      <c r="F47">
+        <v>-0.05611174267943055</v>
+      </c>
+      <c r="G47">
+        <v>-0.08343276317528124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005373770353744967</v>
+        <v>0.01960706906409608</v>
       </c>
       <c r="C48">
-        <v>0.01459721938857319</v>
+        <v>0.01287046064147712</v>
       </c>
       <c r="D48">
-        <v>0.02111633852527823</v>
+        <v>-0.001897702944521159</v>
       </c>
       <c r="E48">
-        <v>-0.001136237262583282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00211797470425987</v>
+      </c>
+      <c r="F48">
+        <v>-0.02052176622781295</v>
+      </c>
+      <c r="G48">
+        <v>-0.09145718219514692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01007875284681945</v>
+        <v>0.07516939162772955</v>
       </c>
       <c r="C50">
-        <v>0.03482223765510593</v>
+        <v>0.07252684342689536</v>
       </c>
       <c r="D50">
-        <v>0.07544165450086596</v>
+        <v>0.002377412157829762</v>
       </c>
       <c r="E50">
-        <v>0.02842435556154099</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.006273148250960339</v>
+      </c>
+      <c r="F50">
+        <v>-0.05640494254251445</v>
+      </c>
+      <c r="G50">
+        <v>-0.0967191102894201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007859783472559787</v>
+        <v>0.0146157670212658</v>
       </c>
       <c r="C51">
-        <v>0.006088900501590924</v>
+        <v>0.03694161255473249</v>
       </c>
       <c r="D51">
-        <v>0.02318935312170616</v>
+        <v>-0.0104477932587797</v>
       </c>
       <c r="E51">
-        <v>0.006982302163173399</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01888905334477653</v>
+      </c>
+      <c r="F51">
+        <v>0.0223656052235075</v>
+      </c>
+      <c r="G51">
+        <v>-0.1231436405800581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.009829226441268097</v>
+        <v>0.08173144279294477</v>
       </c>
       <c r="C53">
-        <v>0.02836025307967108</v>
+        <v>0.08598873839614724</v>
       </c>
       <c r="D53">
-        <v>0.1353571875299011</v>
+        <v>0.003440207853215306</v>
       </c>
       <c r="E53">
-        <v>0.02229324402625909</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02431362992720493</v>
+      </c>
+      <c r="F53">
+        <v>-0.06677994368749318</v>
+      </c>
+      <c r="G53">
+        <v>-0.0855315117051241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.007742594921350331</v>
+        <v>0.03229931687856741</v>
       </c>
       <c r="C54">
-        <v>0.04046033645725709</v>
+        <v>0.01805291744878027</v>
       </c>
       <c r="D54">
-        <v>0.001922850981505227</v>
+        <v>0.001621912583100632</v>
       </c>
       <c r="E54">
-        <v>-0.01468686670610008</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01332147513786748</v>
+      </c>
+      <c r="F54">
+        <v>-0.005713132178068086</v>
+      </c>
+      <c r="G54">
+        <v>-0.1027418754500912</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005265148213705884</v>
+        <v>0.07179325714891155</v>
       </c>
       <c r="C55">
-        <v>0.01865306277383968</v>
+        <v>0.06908751407726146</v>
       </c>
       <c r="D55">
-        <v>0.1088890448654327</v>
+        <v>0.005008189701032039</v>
       </c>
       <c r="E55">
-        <v>0.007573407520462447</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02161979464741267</v>
+      </c>
+      <c r="F55">
+        <v>-0.06384100449053838</v>
+      </c>
+      <c r="G55">
+        <v>-0.06110188244006684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01126483203531707</v>
+        <v>0.1374224980134345</v>
       </c>
       <c r="C56">
-        <v>0.04922043641219075</v>
+        <v>0.1085938594559496</v>
       </c>
       <c r="D56">
-        <v>0.1670559996463682</v>
+        <v>0.01259816853643024</v>
       </c>
       <c r="E56">
-        <v>0.02821311246255145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03070790122794843</v>
+      </c>
+      <c r="F56">
+        <v>-0.08183576098719926</v>
+      </c>
+      <c r="G56">
+        <v>-0.03371060954196085</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02427138408657207</v>
+        <v>0.005640725432970052</v>
       </c>
       <c r="C57">
-        <v>0.0001250044266544414</v>
+        <v>0.007337284529897878</v>
       </c>
       <c r="D57">
-        <v>0.03709508422829001</v>
+        <v>-0.02336491937808611</v>
       </c>
       <c r="E57">
-        <v>-0.03767819130473655</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02475499496708812</v>
+      </c>
+      <c r="F57">
+        <v>0.01065199127791445</v>
+      </c>
+      <c r="G57">
+        <v>-0.0281084350389806</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0144985341055073</v>
+        <v>0.05239481329554573</v>
       </c>
       <c r="C58">
-        <v>0.03422099266989826</v>
+        <v>0.04946249229317608</v>
       </c>
       <c r="D58">
-        <v>0.1347714786102994</v>
+        <v>-0.02354923951222267</v>
       </c>
       <c r="E58">
-        <v>-0.823217838585184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9374298658378769</v>
+      </c>
+      <c r="F58">
+        <v>-0.2205174751396596</v>
+      </c>
+      <c r="G58">
+        <v>0.1606319430000633</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.07702780560484482</v>
+        <v>0.1605165529845634</v>
       </c>
       <c r="C59">
-        <v>0.265308080049815</v>
+        <v>-0.2033718254226096</v>
       </c>
       <c r="D59">
-        <v>-0.08912201724256955</v>
+        <v>0.01145080667124449</v>
       </c>
       <c r="E59">
-        <v>0.02113640473961052</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0170706455790774</v>
+      </c>
+      <c r="F59">
+        <v>-0.0007317981839401265</v>
+      </c>
+      <c r="G59">
+        <v>-0.04288940869232078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.06630586456913989</v>
+        <v>0.2878085780780707</v>
       </c>
       <c r="C60">
-        <v>0.1570563941849037</v>
+        <v>0.106826573868342</v>
       </c>
       <c r="D60">
-        <v>0.1432546419706778</v>
+        <v>-0.01164668420057063</v>
       </c>
       <c r="E60">
-        <v>0.05867863670093756</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.008710517153983997</v>
+      </c>
+      <c r="F60">
+        <v>0.3449806910999696</v>
+      </c>
+      <c r="G60">
+        <v>0.1449724018065621</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002071799851641226</v>
+        <v>0.03805229434792139</v>
       </c>
       <c r="C61">
-        <v>-0.006751383466215319</v>
+        <v>0.06712906203373599</v>
       </c>
       <c r="D61">
-        <v>0.07508432928209921</v>
+        <v>-0.005254345294535655</v>
       </c>
       <c r="E61">
-        <v>0.005976651501690196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01357238485354263</v>
+      </c>
+      <c r="F61">
+        <v>0.01535881499158949</v>
+      </c>
+      <c r="G61">
+        <v>-0.0914789699061969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00813283057892784</v>
+        <v>0.01536228152032062</v>
       </c>
       <c r="C63">
-        <v>0.0006764994525774602</v>
+        <v>0.03049214520513259</v>
       </c>
       <c r="D63">
-        <v>0.02858583723020932</v>
+        <v>-0.00847450995131015</v>
       </c>
       <c r="E63">
-        <v>0.01420366091561137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.001230237609252882</v>
+      </c>
+      <c r="F63">
+        <v>-0.01823083874969697</v>
+      </c>
+      <c r="G63">
+        <v>-0.09391014934105278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01066724474366378</v>
+        <v>0.04767437484532314</v>
       </c>
       <c r="C64">
-        <v>0.01648808806594186</v>
+        <v>0.04744823134485067</v>
       </c>
       <c r="D64">
-        <v>0.0635550561322169</v>
+        <v>-0.006089331515865733</v>
       </c>
       <c r="E64">
-        <v>0.005726272723891665</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0003021335645495098</v>
+      </c>
+      <c r="F64">
+        <v>0.00576759707398537</v>
+      </c>
+      <c r="G64">
+        <v>-0.08760910763192153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01714314709942136</v>
+        <v>0.07432348285625762</v>
       </c>
       <c r="C65">
-        <v>-0.006512201127254667</v>
+        <v>0.05952145664935816</v>
       </c>
       <c r="D65">
-        <v>0.1057189225965999</v>
+        <v>-0.01643726325452335</v>
       </c>
       <c r="E65">
-        <v>0.02261234550339278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03331695481131061</v>
+      </c>
+      <c r="F65">
+        <v>0.03167624596964817</v>
+      </c>
+      <c r="G65">
+        <v>-0.03514599645738489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-1.870228126909862e-05</v>
+        <v>0.05110680494229387</v>
       </c>
       <c r="C66">
-        <v>-0.03475621759831968</v>
+        <v>0.1087559641180778</v>
       </c>
       <c r="D66">
-        <v>0.1322175100610591</v>
+        <v>-0.01147021909067836</v>
       </c>
       <c r="E66">
-        <v>-0.00483468705705222</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02992769629832384</v>
+      </c>
+      <c r="F66">
+        <v>0.03573666123577531</v>
+      </c>
+      <c r="G66">
+        <v>-0.1024474221258559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.00862922799874819</v>
+        <v>0.05480604800264278</v>
       </c>
       <c r="C67">
-        <v>0.04205949597427301</v>
+        <v>0.03495895380789748</v>
       </c>
       <c r="D67">
-        <v>0.06932958639330219</v>
+        <v>0.005998617374975987</v>
       </c>
       <c r="E67">
-        <v>0.01017643652583999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004265906167494298</v>
+      </c>
+      <c r="F67">
+        <v>-0.01925564816274523</v>
+      </c>
+      <c r="G67">
+        <v>-0.07346875658982154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.09192213198907573</v>
+        <v>0.1544035332172987</v>
       </c>
       <c r="C68">
-        <v>0.2515206425031876</v>
+        <v>-0.2690644309708843</v>
       </c>
       <c r="D68">
-        <v>-0.1401583524807733</v>
+        <v>-0.006180003727338432</v>
       </c>
       <c r="E68">
-        <v>-0.02388309311222888</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0126058239647217</v>
+      </c>
+      <c r="F68">
+        <v>-0.03259036693003794</v>
+      </c>
+      <c r="G68">
+        <v>-0.03320952906796613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003281248315113413</v>
+        <v>0.08213714346854196</v>
       </c>
       <c r="C69">
-        <v>0.02894962067165499</v>
+        <v>0.07124715362955426</v>
       </c>
       <c r="D69">
-        <v>0.08241294820106955</v>
+        <v>0.009001147084970487</v>
       </c>
       <c r="E69">
-        <v>0.02393256525148468</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02287029834990595</v>
+      </c>
+      <c r="F69">
+        <v>-0.03804661506371884</v>
+      </c>
+      <c r="G69">
+        <v>-0.09502772465390449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.07091857092305368</v>
+        <v>0.1404459739808379</v>
       </c>
       <c r="C71">
-        <v>0.2127456652817058</v>
+        <v>-0.227681528785676</v>
       </c>
       <c r="D71">
-        <v>-0.08850400745149672</v>
+        <v>0.002557433365941073</v>
       </c>
       <c r="E71">
-        <v>-0.02504456847518702</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03250398850113272</v>
+      </c>
+      <c r="F71">
+        <v>-0.01958586746572376</v>
+      </c>
+      <c r="G71">
+        <v>-0.06928945935300455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0001089553769703816</v>
+        <v>0.0844934208693125</v>
       </c>
       <c r="C72">
-        <v>0.01767331686744196</v>
+        <v>0.07174112269655478</v>
       </c>
       <c r="D72">
-        <v>0.1067183339733548</v>
+        <v>0.008431392576463949</v>
       </c>
       <c r="E72">
-        <v>0.03909372749789615</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.006365294306420005</v>
+      </c>
+      <c r="F72">
+        <v>0.03851933787181681</v>
+      </c>
+      <c r="G72">
+        <v>-0.08279956704013595</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.07898469527194976</v>
+        <v>0.3762534013506486</v>
       </c>
       <c r="C73">
-        <v>0.1604588707880215</v>
+        <v>0.1173433331643399</v>
       </c>
       <c r="D73">
-        <v>0.2630745909427163</v>
+        <v>-0.02038523689393204</v>
       </c>
       <c r="E73">
-        <v>0.0259366816103146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06193065954896616</v>
+      </c>
+      <c r="F73">
+        <v>0.5805078654324325</v>
+      </c>
+      <c r="G73">
+        <v>0.2622680776376091</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.009458258102291546</v>
+        <v>0.104816637574412</v>
       </c>
       <c r="C74">
-        <v>0.04460295459921075</v>
+        <v>0.109229240982692</v>
       </c>
       <c r="D74">
-        <v>0.1773962917463891</v>
+        <v>0.009359911354383386</v>
       </c>
       <c r="E74">
-        <v>0.01616567592823635</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.00629579953180447</v>
+      </c>
+      <c r="F74">
+        <v>-0.06980493317066785</v>
+      </c>
+      <c r="G74">
+        <v>-0.07725374758200043</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.027150323920935</v>
+        <v>0.2487906411388912</v>
       </c>
       <c r="C75">
-        <v>0.1202960312245047</v>
+        <v>0.1520712922507728</v>
       </c>
       <c r="D75">
-        <v>0.3128654972080956</v>
+        <v>0.03075653359335902</v>
       </c>
       <c r="E75">
-        <v>0.03295864719147216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05445165255177441</v>
+      </c>
+      <c r="F75">
+        <v>-0.1779226854439157</v>
+      </c>
+      <c r="G75">
+        <v>0.03262544160976507</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.007194888456315621</v>
+        <v>0.1194665360917302</v>
       </c>
       <c r="C76">
-        <v>0.05960349939811615</v>
+        <v>0.1099342700191266</v>
       </c>
       <c r="D76">
-        <v>0.2275609553265838</v>
+        <v>0.01864005614971276</v>
       </c>
       <c r="E76">
-        <v>0.0517803606241723</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02926829575631241</v>
+      </c>
+      <c r="F76">
+        <v>-0.1116657289903599</v>
+      </c>
+      <c r="G76">
+        <v>-0.05504635582965372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01518493581437978</v>
+        <v>0.06771816269879773</v>
       </c>
       <c r="C77">
-        <v>0.01016912793493566</v>
+        <v>0.05917607651056509</v>
       </c>
       <c r="D77">
-        <v>0.06817042458277509</v>
+        <v>-0.01105848384711963</v>
       </c>
       <c r="E77">
-        <v>-0.01487650404672618</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04182831551115262</v>
+      </c>
+      <c r="F77">
+        <v>0.01584758249957578</v>
+      </c>
+      <c r="G77">
+        <v>-0.06066708646150504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003979128027826394</v>
+        <v>0.04190407748576281</v>
       </c>
       <c r="C78">
-        <v>-0.001696600576767953</v>
+        <v>0.05172321242619705</v>
       </c>
       <c r="D78">
-        <v>0.05746515750822936</v>
+        <v>-0.005464460071539255</v>
       </c>
       <c r="E78">
-        <v>-0.0110168851803396</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02224658607405088</v>
+      </c>
+      <c r="F78">
+        <v>0.03669616067881026</v>
+      </c>
+      <c r="G78">
+        <v>-0.09092878294191159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01039201071613287</v>
+        <v>0.04276211411094688</v>
       </c>
       <c r="C80">
-        <v>-0.003023045510511206</v>
+        <v>0.07492575073711769</v>
       </c>
       <c r="D80">
-        <v>0.1661587205427295</v>
+        <v>-0.01076090932755498</v>
       </c>
       <c r="E80">
-        <v>0.3955267967848988</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03617878331443383</v>
+      </c>
+      <c r="F80">
+        <v>0.00709737260167053</v>
+      </c>
+      <c r="G80">
+        <v>-0.2649172860632654</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01638809566044072</v>
+        <v>0.137861214215211</v>
       </c>
       <c r="C81">
-        <v>0.06894774779277782</v>
+        <v>0.09609720400786376</v>
       </c>
       <c r="D81">
-        <v>0.1850746349105969</v>
+        <v>0.0151367550928937</v>
       </c>
       <c r="E81">
-        <v>0.03968627070799591</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0336226167711874</v>
+      </c>
+      <c r="F81">
+        <v>-0.1316876354514357</v>
+      </c>
+      <c r="G81">
+        <v>-0.02119044340428193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1299930627769476</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07645956667002766</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008480238043594636</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08991899669685961</v>
+      </c>
+      <c r="F82">
+        <v>-0.04779944866252745</v>
+      </c>
+      <c r="G82">
+        <v>-0.05549326788615885</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008962776497916288</v>
+        <v>0.03643267881195264</v>
       </c>
       <c r="C83">
-        <v>0.01472437447186347</v>
+        <v>0.02998758252725461</v>
       </c>
       <c r="D83">
-        <v>0.0363768817269098</v>
+        <v>-0.005896155105405906</v>
       </c>
       <c r="E83">
-        <v>-0.01645182294016549</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02795535952109473</v>
+      </c>
+      <c r="F83">
+        <v>0.03189461209895859</v>
+      </c>
+      <c r="G83">
+        <v>-0.06195737576468945</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02859760209121619</v>
+        <v>0.2128463721367272</v>
       </c>
       <c r="C85">
-        <v>0.08215454025260448</v>
+        <v>0.1453465855433947</v>
       </c>
       <c r="D85">
-        <v>0.2721175598500984</v>
+        <v>0.01778592175357762</v>
       </c>
       <c r="E85">
-        <v>0.03944702336276926</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09374595801710027</v>
+      </c>
+      <c r="F85">
+        <v>-0.1329314331317791</v>
+      </c>
+      <c r="G85">
+        <v>0.09527120655606768</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009866492433477377</v>
+        <v>0.01282203215337627</v>
       </c>
       <c r="C86">
-        <v>0.01244328858024919</v>
+        <v>0.02813201620785926</v>
       </c>
       <c r="D86">
-        <v>0.05878212809777132</v>
+        <v>-0.01220105040867692</v>
       </c>
       <c r="E86">
-        <v>-0.02799513816029343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04748706132602809</v>
+      </c>
+      <c r="F86">
+        <v>0.03057284340855325</v>
+      </c>
+      <c r="G86">
+        <v>-0.1839823138704774</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005873586601114681</v>
+        <v>0.02195629664861071</v>
       </c>
       <c r="C87">
-        <v>-0.01134501056484067</v>
+        <v>0.02298876135105817</v>
       </c>
       <c r="D87">
-        <v>0.04990561568472834</v>
+        <v>-0.01158981560802589</v>
       </c>
       <c r="E87">
-        <v>-0.02950671011184822</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08529982665994452</v>
+      </c>
+      <c r="F87">
+        <v>0.01309705711975777</v>
+      </c>
+      <c r="G87">
+        <v>-0.1164953898442964</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03191043985489057</v>
+        <v>0.09320835154134123</v>
       </c>
       <c r="C88">
-        <v>0.0255779364757788</v>
+        <v>0.06847344304846599</v>
       </c>
       <c r="D88">
-        <v>0.05999470109454912</v>
+        <v>-0.02223375323506445</v>
       </c>
       <c r="E88">
-        <v>0.001510094805531061</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.006730814722397708</v>
+      </c>
+      <c r="F88">
+        <v>-0.01990250971378469</v>
+      </c>
+      <c r="G88">
+        <v>-0.08669075659327112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1355327655453357</v>
+        <v>0.2333610547002838</v>
       </c>
       <c r="C89">
-        <v>0.4006429392473044</v>
+        <v>-0.3660145249191894</v>
       </c>
       <c r="D89">
-        <v>-0.1571045415763672</v>
+        <v>-0.0002755803419685585</v>
       </c>
       <c r="E89">
-        <v>0.03463879166012167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0140560737123051</v>
+      </c>
+      <c r="F89">
+        <v>-0.02536904782201465</v>
+      </c>
+      <c r="G89">
+        <v>-0.06815371052720227</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1076426387014361</v>
+        <v>0.208415632567315</v>
       </c>
       <c r="C90">
-        <v>0.3268351396871284</v>
+        <v>-0.3189455508234463</v>
       </c>
       <c r="D90">
-        <v>-0.153753922061537</v>
+        <v>0.004439134633773384</v>
       </c>
       <c r="E90">
-        <v>-0.003747625977352179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.00378855108123542</v>
+      </c>
+      <c r="F90">
+        <v>-0.05415552562102859</v>
+      </c>
+      <c r="G90">
+        <v>-0.03685047950062709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.02116970956307134</v>
+        <v>0.1863273821057175</v>
       </c>
       <c r="C91">
-        <v>0.1036216292869471</v>
+        <v>0.1392634936550318</v>
       </c>
       <c r="D91">
-        <v>0.232421050469288</v>
+        <v>0.02210418459673193</v>
       </c>
       <c r="E91">
-        <v>0.04215545702354206</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05812902357125478</v>
+      </c>
+      <c r="F91">
+        <v>-0.144879217986263</v>
+      </c>
+      <c r="G91">
+        <v>-0.02307446848989972</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.07124009833997415</v>
+        <v>0.1997359268062016</v>
       </c>
       <c r="C92">
-        <v>0.3139144110802304</v>
+        <v>-0.2577032664802933</v>
       </c>
       <c r="D92">
-        <v>-0.04944128693331976</v>
+        <v>0.03823977998063326</v>
       </c>
       <c r="E92">
-        <v>-0.04972434155376163</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03570741968102855</v>
+      </c>
+      <c r="F92">
+        <v>-0.06010980572583741</v>
+      </c>
+      <c r="G92">
+        <v>-0.1275156765097269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1074332507166722</v>
+        <v>0.2331586952029673</v>
       </c>
       <c r="C93">
-        <v>0.3424852191026847</v>
+        <v>-0.3142751855863332</v>
       </c>
       <c r="D93">
-        <v>-0.1189664472017596</v>
+        <v>0.01130783283399309</v>
       </c>
       <c r="E93">
-        <v>-0.02080091217708268</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008188022208142061</v>
+      </c>
+      <c r="F93">
+        <v>-0.04102784620896288</v>
+      </c>
+      <c r="G93">
+        <v>-0.05055197172866375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.05760978680981651</v>
+        <v>0.3163303938474799</v>
       </c>
       <c r="C94">
-        <v>0.1481204672325553</v>
+        <v>0.1776488295266133</v>
       </c>
       <c r="D94">
-        <v>0.2879508692726677</v>
+        <v>0.01675580239384071</v>
       </c>
       <c r="E94">
-        <v>0.08827187858512005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1675517632990503</v>
+      </c>
+      <c r="F94">
+        <v>-0.4798512373488982</v>
+      </c>
+      <c r="G94">
+        <v>0.4126398052237596</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.00218835561281303</v>
+        <v>0.1013600190846389</v>
       </c>
       <c r="C95">
-        <v>0.02153690464275399</v>
+        <v>0.0869179945460153</v>
       </c>
       <c r="D95">
-        <v>0.1190634351342155</v>
+        <v>0.0110051943989319</v>
       </c>
       <c r="E95">
-        <v>-0.136019627285994</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07032034399493077</v>
+      </c>
+      <c r="F95">
+        <v>0.2010256292134946</v>
+      </c>
+      <c r="G95">
+        <v>0.09242430615361541</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.03254167262928823</v>
+        <v>0.1973709936627298</v>
       </c>
       <c r="C98">
-        <v>0.1364200391943511</v>
+        <v>0.04627585427845425</v>
       </c>
       <c r="D98">
-        <v>0.1592549663800356</v>
+        <v>0.01335326342969788</v>
       </c>
       <c r="E98">
-        <v>-0.03844944658653917</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06533178315395284</v>
+      </c>
+      <c r="F98">
+        <v>0.2414002787081632</v>
+      </c>
+      <c r="G98">
+        <v>-0.0009929082886964795</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01028845593234137</v>
+        <v>0.00922246829287092</v>
       </c>
       <c r="C101">
-        <v>0.01245890053806935</v>
+        <v>0.02293501158437166</v>
       </c>
       <c r="D101">
-        <v>0.02014083126707469</v>
+        <v>-0.008763517276017851</v>
       </c>
       <c r="E101">
-        <v>-0.002123091523720514</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0006503776361934178</v>
+      </c>
+      <c r="F101">
+        <v>-0.01863649130302761</v>
+      </c>
+      <c r="G101">
+        <v>-0.09280740792581489</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02108919328421988</v>
+        <v>0.1166068132433022</v>
       </c>
       <c r="C102">
-        <v>0.03847017987135513</v>
+        <v>0.08325107061362737</v>
       </c>
       <c r="D102">
-        <v>0.1316632180493325</v>
+        <v>-0.0006797347962243565</v>
       </c>
       <c r="E102">
-        <v>0.02166273472000839</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03393232197642443</v>
+      </c>
+      <c r="F102">
+        <v>-0.04354106935004438</v>
+      </c>
+      <c r="G102">
+        <v>-0.007800881999689328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9444297033097281</v>
+        <v>0.02121255573888911</v>
       </c>
       <c r="C104">
-        <v>-0.2982156969928333</v>
+        <v>-0.02950372781624915</v>
       </c>
       <c r="D104">
-        <v>-0.03760169034394475</v>
+        <v>-0.9878276758918187</v>
       </c>
       <c r="E104">
-        <v>0.02814752697273449</v>
+        <v>0.04603814798492598</v>
+      </c>
+      <c r="F104">
+        <v>-0.03578940652923648</v>
+      </c>
+      <c r="G104">
+        <v>0.03403627610665832</v>
       </c>
     </row>
   </sheetData>
